--- a/data/conslay/fixed_locations.xlsx
+++ b/data/conslay/fixed_locations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daovudat/Desktop/Projects/matlab/moaha-place-OBL/moaha_place_obl_3cases/multiphase/static/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daovudat/Desktop/Projects/freelance/golang-moaha-construction/data/conslay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAA5629-4CC0-5D44-9A3D-DDE45555DE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB0612A-EB10-3449-A223-BFFEE15F1669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{82FBD6D4-541B-A340-931E-720121D87B31}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>TF14</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>TF15</t>
   </si>
@@ -459,34 +456,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA024008-5D72-9649-81A4-DE7FF0B70DB1}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E9" sqref="A9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>52</v>
@@ -495,10 +492,10 @@
         <v>24</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -506,16 +503,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -526,31 +523,21 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2">
-        <v>22</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2">
-        <v>92</v>
-      </c>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
